--- a/biology/Botanique/ASTREDHOR_-_Institut_des_professionnels_du_végétal/ASTREDHOR_-_Institut_des_professionnels_du_végétal.xlsx
+++ b/biology/Botanique/ASTREDHOR_-_Institut_des_professionnels_du_végétal/ASTREDHOR_-_Institut_des_professionnels_du_végétal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ASTREDHOR_-_Institut_des_professionnels_du_v%C3%A9g%C3%A9tal</t>
+          <t>ASTREDHOR_-_Institut_des_professionnels_du_végétal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Association créée en 1995, ASTREDHOR - Institut des professionnels du végétal accompagne les acteurs du secteur pour relever les défis techniques, économiques et environnementaux de la filière : horticulture, production, Agro-fourniture, distribution, fleuristerie et paysage . 
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ASTREDHOR_-_Institut_des_professionnels_du_v%C3%A9g%C3%A9tal</t>
+          <t>ASTREDHOR_-_Institut_des_professionnels_du_végétal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">ASTREDHOR a pour missions : 
 La recherche appliquée 
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ASTREDHOR_-_Institut_des_professionnels_du_v%C3%A9g%C3%A9tal</t>
+          <t>ASTREDHOR_-_Institut_des_professionnels_du_végétal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,14 +570,16 @@
           <t>Thématiques de recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les travaux de recherche et d’innovation réalisés par ASTREDHOR répondent à des besoins de productivité, de compétitivité et de développement durable de la part des professionnels et des politiques publiques.
 Les principaux domaines de recherches sont les suivants :
 Systèmes alternatifs, accompagnement des transitions (méthodes alternatives aux produits phytosanitaires, efficience des intrants, adaptation au changement climatique...)
 Ingénierie verte et services écosystémiques (agricultures urbaines, végétaux fonctionnels et végétal en ville)
 Valorisation industrielle pour la bioéconomie (fleurs comestibles, chimie du végétal...)
-Économie et marchés (étude des marchés et des attentes des consommateurs dans le domaine de l'horticulture et de la fleuristerie[1])
+Économie et marchés (étude des marchés et des attentes des consommateurs dans le domaine de l'horticulture et de la fleuristerie)
 Horticulture connectée (outils d'aide à la décision, robotisation...)</t>
         </is>
       </c>
@@ -574,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ASTREDHOR_-_Institut_des_professionnels_du_v%C3%A9g%C3%A9tal</t>
+          <t>ASTREDHOR_-_Institut_des_professionnels_du_végétal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,51 +608,124 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>ASTREDHOR - Institut des professionnels du végétal s’appuie sur six unités régionales et 5 stations d’expérimentation qui portent les projets de l’Institut et les déclinent au sein de leur territoire. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ASTREDHOR - Institut des professionnels du végétal s’appuie sur six unités régionales et 5 stations d’expérimentation qui portent les projets de l’Institut et les déclinent au sein de leur territoire. 
 L'organisation d'ASTREDHOR - Institut des professionnels du végétal permet de répondre aussi bien à des besoins locaux spécifiques mais également à des problématiques nationales et internationales exprimées par les professionnels et les pouvoirs publics. 
-Les Unités Territoriales d'ASTREDHOR
-ASTREDHOR Est
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ASTREDHOR_-_Institut_des_professionnels_du_végétal</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/ASTREDHOR_-_Institut_des_professionnels_du_v%C3%A9g%C3%A9tal</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les Unités Territoriales d'ASTREDHOR</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>ASTREDHOR Est
 ASTREDHOR Loire-Bretagne
 ASTREDHOR Méditerranée
 ASTREDHOR Auvergne-Rhône-Alpes
 ASTREDHOR Seine-Manche
-ASTREDHOR Sud-Ouest
-Liste des Unités Mixtes Technologiques
-UMT FioriMed² (co-conception de stratégies de protection intégrée, développement de nouvelles technologies innovantes, élaboration de méthodes et d’outils pour l’évaluation en dynamique de l’état sanitaire des cultures…)
-UMT STRATège (étude de nouvelles stratégies techniques et marketing pour mieux répondre au marché horticole urbain)[2]
+ASTREDHOR Sud-Ouest</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ASTREDHOR_-_Institut_des_professionnels_du_végétal</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/ASTREDHOR_-_Institut_des_professionnels_du_v%C3%A9g%C3%A9tal</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des Unités Mixtes Technologiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>UMT FioriMed² (co-conception de stratégies de protection intégrée, développement de nouvelles technologies innovantes, élaboration de méthodes et d’outils pour l’évaluation en dynamique de l’état sanitaire des cultures…)
+UMT STRATège (étude de nouvelles stratégies techniques et marketing pour mieux répondre au marché horticole urbain)
 UMT FUP (durabilité des fermes urbaines professionnelles)</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ASTREDHOR_-_Institut_des_professionnels_du_v%C3%A9g%C3%A9tal</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ASTREDHOR_-_Institut_des_professionnels_du_végétal</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/ASTREDHOR_-_Institut_des_professionnels_du_v%C3%A9g%C3%A9tal</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2012, considérant que l’horticulture ornementale a des marchés voisin du secteur des plantes aromatiques avec des convergences dans la gestion des activités d’expérimentation, un rapprochement/fusion entre l’Institut technique interprofessionnel des plantes à parfum, médicinales, aromatiques et industrielles (ITEIPMAI) et ASTREDHOR est prévu et annoncé au 1er janvier 2015[3]. Ce projet d’institut commun est remis en cause, en contraignant les deux instituts techniques à redéposer leur dossier de qualification en tant qu’institut technique sur une base individuelle et à soutenir leurs projets respectifs devant l’Acta sur le second semestre 2014[4]. La qualification individuelle d’ASTREDHOR a d’ailleurs été confirmée par l’arrêté du ministère de l’Agriculture du 1er avril 2015.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012, considérant que l’horticulture ornementale a des marchés voisin du secteur des plantes aromatiques avec des convergences dans la gestion des activités d’expérimentation, un rapprochement/fusion entre l’Institut technique interprofessionnel des plantes à parfum, médicinales, aromatiques et industrielles (ITEIPMAI) et ASTREDHOR est prévu et annoncé au 1er janvier 2015. Ce projet d’institut commun est remis en cause, en contraignant les deux instituts techniques à redéposer leur dossier de qualification en tant qu’institut technique sur une base individuelle et à soutenir leurs projets respectifs devant l’Acta sur le second semestre 2014. La qualification individuelle d’ASTREDHOR a d’ailleurs été confirmée par l’arrêté du ministère de l’Agriculture du 1er avril 2015.
 </t>
         </is>
       </c>
